--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010562</t>
+          <t>166025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢成长领航混合A</t>
+          <t>中欧远见两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>54.89</t>
+          <t>54.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010563</t>
+          <t>002121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢成长领航混合C</t>
+          <t>广发沪港深新起点股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>54.89</t>
+          <t>55.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.37</t>
+          <t>49.86</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>010141</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>朱雀企业优选股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.37</t>
+          <t>24.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4669</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007101</t>
+          <t>006529</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧远见两年定期开放混合C</t>
+          <t>中欧匠心两年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.55</t>
+          <t>37.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007353</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新3年封闭运作混合</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.26</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0941</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>166025</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧远见两年定期开放混合A</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>79.55</t>
+          <t>14.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>010142</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>朱雀企业优选股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010024</t>
+          <t>007353</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票C</t>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>21.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>008480</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>永赢股息优选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>007895</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>嘉实价值成长混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>010024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>广发沪港深新起点股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010141</t>
+          <t>010562</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票A</t>
+          <t>永赢成长领航混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
+          <t>54.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010142</t>
+          <t>006533</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>朱雀企业优选股票C</t>
+          <t>易方达科融混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.58</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002121</t>
+          <t>007880</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发沪港深新起点股票A</t>
+          <t>朱雀产业智选混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008488</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商恒益稳健混合</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>60.25</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>005481</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>银华瑞泰灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>10.04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005481</t>
+          <t>009102</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>银华瑞泰灵活配置混合</t>
+          <t>鹏扬红利优选混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006039</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006529</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中欧匠心两年持有期混合A</t>
+          <t>富兰克林国海估值优势灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1062,15 +1272,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>93.21</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006533</t>
+          <t>008488</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>易方达科融混合</t>
+          <t>华商恒益稳健混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>007139</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007493</t>
+          <t>009103</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合A</t>
+          <t>鹏扬红利优选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>007101</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>中欧远见两年定期开放混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1220,25 +1490,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007880</t>
+          <t>007881</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合A</t>
+          <t>朱雀产业智选混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>77.63</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>3.36</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007881</t>
+          <t>010563</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>朱雀产业智选混合C</t>
+          <t>永赢成长领航混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>77.63</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>54.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007895</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>嘉实价值成长混合</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>008480</t>
+          <t>519696</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>永赢股息优选混合A</t>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>93.91</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1342,15 +1652,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>93.91</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>8.14</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>519696</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>95.02</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009102</t>
+          <t>007139</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鹏扬红利优选混合A</t>
+          <t>富国民裕进取沪港深成长精选混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1416,26 +1756,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009103</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鹏扬红利优选混合C</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>89.70</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>7</v>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,15 +1820,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010562</t>
+          <t>007493</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>永赢成长领航混合A</t>
+          <t>朱雀产业臻选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>77.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010563</t>
+          <t>002387</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>永赢成长领航混合C</t>
+          <t>工银瑞信沪港深股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.32</t>
+          <t>37.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2773</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010922</t>
+          <t>008294</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>朱雀匠心一年持有期混合</t>
+          <t>朱雀企业优胜股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.26</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1303</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007493</t>
+          <t>010562</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合A</t>
+          <t>永赢成长领航混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>19.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007494</t>
+          <t>010922</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>朱雀产业臻选混合C</t>
+          <t>朱雀匠心一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.09</t>
+          <t>22.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7899</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519601</t>
+          <t>007494</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通中国海外精选混合(QDII)</t>
+          <t>朱雀产业臻选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7230</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>008295</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>朱雀企业优胜股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1415</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>010563</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>永赢成长领航混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002387</t>
+          <t>009017</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票A</t>
+          <t>银华港股通精选股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007512</t>
+          <t>519601</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深股票C</t>
+          <t>海富通中国海外精选混合(QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009017</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银华港股通精选股票</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>007512</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>工银瑞信沪港深股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008294</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票A</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008295</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>朱雀企业优胜股票C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.72</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8344</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9040</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8683</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5440</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3386,4 +3387,1922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005794</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华心怡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7865</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>169.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3634</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>76.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1771</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6891</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0799</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9302</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8393</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7857</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4961</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4464</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005228</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富港股通专注成长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4384</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3554</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3451</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2968</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1682</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>36.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003835</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华沪深港新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>75.90</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5305,4 +5306,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5314,7 +5315,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5325,17 +5326,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5345,14 +5366,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>31.72</v>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>297.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5322</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5361,14 +5404,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.56</v>
+          <t>011173</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华心享一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>115.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5377,14 +5442,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.529999999999999</v>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5393,13 +5480,1063 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9703</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5777</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5052</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3396</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合 (QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>49</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>19.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6435,7 +6436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6446,17 +6447,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6466,14 +6487,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.18</v>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6482,14 +6525,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.72</v>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6498,14 +6563,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.56</v>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6514,14 +6601,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.529999999999999</v>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -6530,13 +6639,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5928</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4685</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4439</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2668</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时沪港深成长企业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>19.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7024,7 +7025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,17 +7036,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7055,14 +7076,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.86</v>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5610</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7071,14 +7114,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.18</v>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7087,14 +7152,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>49</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.72</v>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7421</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7103,14 +7190,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.56</v>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -7119,14 +7228,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.529999999999999</v>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4606</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -7135,13 +7266,865 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014333</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银优势领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009426</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票(QDII) -人民币</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>72.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014334</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银优势领航混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009427</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景惠六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>19.46</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>5.83</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>15.18</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>31.72</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D6" t="n">
-        <v>14.56</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>8.529999999999999</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>19.46</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5430</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1565,7 +1980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2153,7 +2568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3273,7 +3688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5191,7 +5606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6159,7 +6574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6785,7 +7200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01772-赣锋锂业.xlsx
+++ b/数据整理/stocks/港股/01772-赣锋锂业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.45</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>5.83</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>15.18</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>31.72</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D7" t="n">
-        <v>14.56</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>8.529999999999999</v>
+        <v>14.56</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>19.46</v>
       </c>
     </row>
@@ -616,7 +633,1563 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007493</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2786</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4669</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2327</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007494</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>朱雀产业臻选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0941</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008294</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0476</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010142</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>朱雀企业优选股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010562</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>54.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007880</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005481</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华瑞泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008295</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>朱雀企业优胜股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1743</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007101</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧远见两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007881</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>朱雀产业智选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010563</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>永赢成长领航混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>54.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519696</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德环球精选价值混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9251</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011163</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时港股通领先趋势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时大中华亚太精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1980,7 +3553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2568,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3688,7 +5261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5606,7 +7179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6574,7 +8147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7198,1352 +8771,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧远见两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>54.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.6732</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002121</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5017</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007493</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49.86</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.2786</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010141</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.4669</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006529</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>37.13</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.2327</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007494</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>朱雀产业臻选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>23.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.0941</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008294</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>14.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.0476</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>010142</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>朱雀企业优选股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>82.58</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5768</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007353</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信科技创新3年封闭运作混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5384</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008480</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4680</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007895</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>嘉实价值成长混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>12.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4056</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010024</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发沪港深新起点股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>88.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3423</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010562</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>永赢成长领航混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14.42</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>54.89</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3216</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006533</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>易方达科融混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3068</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007880</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.78</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>77.63</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2614</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001581</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安沪港深通精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2569</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005481</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银华瑞泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>10.04</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2259</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009102</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏扬红利优选混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.26</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2257</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008295</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>朱雀企业优胜股票C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1891</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006039</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1785</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006530</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中欧匠心两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1743</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1207</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007291</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇丰晋信港股通双核策略混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0774</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.28</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0697</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009103</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>鹏扬红利优选混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0656</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>007101</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中欧远见两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>79.55</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007881</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>朱雀产业智选混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>77.63</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.36</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>010563</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>永赢成长领航混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>54.89</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0555</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>519696</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>交银施罗德环球精选价值混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>95.02</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>008481</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>永赢股息优选混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>8.14</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009017</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>银华港股通精选股票</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.45</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0295</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>007139</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>富国民裕进取沪港深成长精选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>90.12</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0149</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>